--- a/RUDN/Importance/Varible_muatal_class_in_Melanesia.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Melanesia.xlsx
@@ -14,251 +14,251 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Rural population</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Number of infant deaths</t>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
     <t>Female population 15-19</t>
   </si>
   <si>
@@ -349,55 +349,61 @@
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
@@ -409,54 +415,48 @@
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
+    <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Improved water source (% of population with access)</t>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
@@ -484,360 +484,363 @@
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
   </si>
   <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population, total</t>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
@@ -850,184 +853,187 @@
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
+    <t>Children out of school, primary, female</t>
   </si>
   <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Reion_sub_code</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2209,7 +2215,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9125813153909474</v>
+        <v>0.9151454179550501</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2217,7 +2223,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9112006447795077</v>
+        <v>0.9137647473436102</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2225,7 +2231,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9017445453234083</v>
+        <v>0.9037281173069802</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2233,7 +2239,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.9003637039425667</v>
+        <v>0.9017445453234083</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2249,7 +2255,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.8877274513063143</v>
+        <v>0.8828489964278592</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2289,7 +2295,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.8658359420518718</v>
+        <v>0.8639057174845803</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2297,7 +2303,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8642601617068606</v>
+        <v>0.8604140078607068</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2305,7 +2311,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.8639057174845803</v>
+        <v>0.8595467431256061</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2313,7 +2319,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.8595467431256061</v>
+        <v>0.8578499052966044</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2321,7 +2327,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8591319565786553</v>
+        <v>0.8569826405615035</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2329,7 +2335,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.8569826405615035</v>
+        <v>0.8539744094763493</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2337,7 +2343,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.8539744094763493</v>
+        <v>0.8511706747495376</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2345,7 +2351,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.8511706747495376</v>
+        <v>0.848606572185435</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2353,7 +2359,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.848606572185435</v>
+        <v>0.8451326529422851</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2361,7 +2367,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8451326529422851</v>
+        <v>0.8449016019420033</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2369,7 +2375,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.8449016019420033</v>
+        <v>0.8425015660804291</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2377,7 +2383,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8426967555063876</v>
+        <v>0.8401949164108462</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2385,7 +2391,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8425015660804291</v>
+        <v>0.8397604183392811</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2393,7 +2399,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.8397604183392811</v>
+        <v>0.8393819079607709</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2401,7 +2407,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8393819079607709</v>
+        <v>0.8392422612826627</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2417,7 +2423,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8310127130531144</v>
+        <v>0.827593909634311</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2425,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8250114920518934</v>
+        <v>0.8263487625646924</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2433,7 +2439,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8244006072102394</v>
+        <v>0.8257185627589643</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2441,7 +2447,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.8229842457938781</v>
+        <v>0.8250114920518934</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2449,7 +2455,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.8211212797001426</v>
+        <v>0.8244006072102394</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2457,7 +2463,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8199385061544358</v>
+        <v>0.8229842457938781</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2465,7 +2471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.818606572185435</v>
+        <v>0.8223609801706122</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2473,7 +2479,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.818606572185435</v>
+        <v>0.8211212797001426</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2481,7 +2487,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.8179533365321996</v>
+        <v>0.818606572185435</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2489,7 +2495,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8172327750424071</v>
+        <v>0.818606572185435</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2497,7 +2503,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.8142974805134102</v>
+        <v>0.8179533365321996</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2513,7 +2519,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8113342291438612</v>
+        <v>0.8067266145362468</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2545,7 +2551,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.8033078111174432</v>
+        <v>0.802013549823182</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2553,7 +2559,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.802013549823182</v>
+        <v>0.8015747578459287</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2561,7 +2567,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.8015747578459287</v>
+        <v>0.7921286057074686</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2569,7 +2575,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.7921286057074686</v>
+        <v>0.7912205574364872</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2577,7 +2583,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.7850595636384265</v>
+        <v>0.7837775123563753</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2649,7 +2655,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.7571473049569371</v>
+        <v>0.7567245653034282</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2657,7 +2663,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.7550151635940265</v>
+        <v>0.7530376966165597</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2681,7 +2687,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.7491671456782545</v>
+        <v>0.7462498690595012</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2713,7 +2719,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.7430010665799296</v>
+        <v>0.7422268408057038</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2721,7 +2727,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.7422268408057038</v>
+        <v>0.7385011220799849</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2753,7 +2759,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.7352959938748569</v>
+        <v>0.7354258640047271</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2761,7 +2767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.7338082508486523</v>
+        <v>0.7352959938748569</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2769,7 +2775,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.7328617614406243</v>
+        <v>0.7338082508486523</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2785,7 +2791,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.730509669088532</v>
+        <v>0.7301859329955651</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2793,7 +2799,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.7301859329955651</v>
+        <v>0.7270068898165221</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2801,7 +2807,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.7275626161414792</v>
+        <v>0.7269093804882434</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2809,7 +2815,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.7270068898165221</v>
+        <v>0.7264792550581181</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2817,7 +2823,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.7269093804882434</v>
+        <v>0.7247226783015415</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2825,7 +2831,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.7264792550581181</v>
+        <v>0.7219153147249469</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2833,7 +2839,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.7247226783015415</v>
+        <v>0.7213266299054928</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2841,7 +2847,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.7219153147249469</v>
+        <v>0.7186304372093002</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2849,7 +2855,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.7213266299054928</v>
+        <v>0.7179289165077793</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2857,7 +2863,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.7186304372093002</v>
+        <v>0.7176908212696842</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2865,7 +2871,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.7179289165077793</v>
+        <v>0.7113249878360963</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2873,7 +2879,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.7176908212696842</v>
+        <v>0.7066518602307235</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2881,7 +2887,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.7094580596507016</v>
+        <v>0.7064011734517628</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2889,7 +2895,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.7066518602307235</v>
+        <v>0.7034654312750637</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2897,7 +2903,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.7034654312750637</v>
+        <v>0.7011836532240547</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2905,7 +2911,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.7011836532240547</v>
+        <v>0.6992353878142508</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2913,7 +2919,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.699650316568629</v>
+        <v>0.6987031422820054</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2921,7 +2927,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.6992353878142508</v>
+        <v>0.696834779137707</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2929,7 +2935,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.6987031422820054</v>
+        <v>0.6954501132597453</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2937,7 +2943,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.6954501132597453</v>
+        <v>0.6920248206036836</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2945,7 +2951,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.6920248206036836</v>
+        <v>0.6919765355553986</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2953,7 +2959,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.6919765355553986</v>
+        <v>0.6918721954510583</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2961,7 +2967,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.6918721954510583</v>
+        <v>0.6913086991183313</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2969,7 +2975,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.6913086991183313</v>
+        <v>0.690517439096302</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2977,7 +2983,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.690517439096302</v>
+        <v>0.6902255514967224</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2985,7 +2991,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.6902255514967224</v>
+        <v>0.684326962905826</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2993,7 +2999,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.684326962905826</v>
+        <v>0.6795772681561312</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3001,7 +3007,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.6808295628699643</v>
+        <v>0.675425309004172</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3009,7 +3015,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.6795772681561312</v>
+        <v>0.6749679885468516</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3017,7 +3023,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.6763721399510028</v>
+        <v>0.6749185674590883</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3025,7 +3031,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.675425309004172</v>
+        <v>0.674430748009611</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3033,7 +3039,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.6749679885468516</v>
+        <v>0.6695639481428111</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3041,7 +3047,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.6749185674590883</v>
+        <v>0.6644722022818343</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3049,7 +3055,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.6708459994248621</v>
+        <v>0.6640641061045076</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3057,7 +3063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.6644722022818343</v>
+        <v>0.6628251314039946</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3065,7 +3071,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.6628251314039946</v>
+        <v>0.6596919169430828</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3073,7 +3079,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.6605682003009095</v>
+        <v>0.6591833377730421</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3081,7 +3087,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.6591833377730421</v>
+        <v>0.6575504061292692</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3089,7 +3095,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.6575504061292692</v>
+        <v>0.6572340985052691</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3097,7 +3103,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.6572340985052691</v>
+        <v>0.6560123288219613</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3105,7 +3111,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.6560123288219613</v>
+        <v>0.6554399951727043</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3113,7 +3119,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.6533196368984999</v>
+        <v>0.6554399951727043</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3121,7 +3127,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.6530451250855265</v>
+        <v>0.6533196368984999</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3145,7 +3151,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.6489200127730095</v>
+        <v>0.6480895748240751</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3153,7 +3159,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.6480895748240751</v>
+        <v>0.6456273292061923</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3161,7 +3167,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.6456273292061923</v>
+        <v>0.6446932632721263</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3169,7 +3175,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.6446932632721263</v>
+        <v>0.6400168285956915</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3177,7 +3183,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.640055379788089</v>
+        <v>0.6400046185834816</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3185,7 +3191,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.6400168285956915</v>
+        <v>0.6398584826681148</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3193,7 +3199,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.6400046185834816</v>
+        <v>0.6398584826681148</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3201,7 +3207,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.6398584826681148</v>
+        <v>0.6353648139436769</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3209,7 +3215,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.6398584826681148</v>
+        <v>0.6353648139436769</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3217,7 +3223,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.6353648139436769</v>
+        <v>0.6349613285401916</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3225,7 +3231,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.6353648139436769</v>
+        <v>0.6338141423930055</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3233,7 +3239,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.6349613285401916</v>
+        <v>0.6330632266420897</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3241,7 +3247,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.6338141423930055</v>
+        <v>0.6309588290286423</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3249,7 +3255,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.6332665213363347</v>
+        <v>0.629942097222437</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3257,7 +3263,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.6330632266420897</v>
+        <v>0.6284234220022851</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3265,7 +3271,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.6284234220022851</v>
+        <v>0.626072823882456</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3273,7 +3279,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.6266005741613376</v>
+        <v>0.6240070653574217</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3281,7 +3287,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.626072823882456</v>
+        <v>0.6230315916104545</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3289,7 +3295,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.6185627271415901</v>
+        <v>0.6198214684003316</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3297,7 +3303,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.6146932632721263</v>
+        <v>0.614364581868313</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3313,7 +3319,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.614364581868313</v>
+        <v>0.6137595325985767</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3321,7 +3327,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.6137595325985767</v>
+        <v>0.6093086478875109</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3329,7 +3335,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.6073611509400141</v>
+        <v>0.6080071715860345</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3337,7 +3343,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.6058413886510208</v>
+        <v>0.6073611509400141</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3345,7 +3351,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.6056032934129256</v>
+        <v>0.6058413886510208</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3353,7 +3359,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.6052461505557829</v>
+        <v>0.6056032934129256</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3369,7 +3375,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.6043458756170463</v>
+        <v>0.6031900957508594</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3409,7 +3415,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.5957103444815155</v>
+        <v>0.5946871582660214</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3417,7 +3423,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.5946871582660214</v>
+        <v>0.5902852780949104</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3425,7 +3431,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.5902852780949104</v>
+        <v>0.5884311857317681</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3433,7 +3439,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.5884311857317681</v>
+        <v>0.5856091146404665</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3441,7 +3447,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.5825487411276042</v>
+        <v>0.58152497856538</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3449,7 +3455,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.58152497856538</v>
+        <v>0.5800223786012415</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3457,7 +3463,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.5800223786012415</v>
+        <v>0.5749481301079864</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3465,7 +3471,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.5749481301079864</v>
+        <v>0.5740999676788308</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3473,7 +3479,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5712554190650516</v>
+        <v>0.5676602962391595</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3481,7 +3487,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.5668105903894536</v>
+        <v>0.5661566289662612</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3489,7 +3495,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.5661566289662612</v>
+        <v>0.565150264365099</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3497,7 +3503,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.565150264365099</v>
+        <v>0.5603228561528504</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3505,7 +3511,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.5616341429053138</v>
+        <v>0.5556870984967306</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3513,7 +3519,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5603228561528504</v>
+        <v>0.5556870984967306</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3521,7 +3527,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.5556870984967306</v>
+        <v>0.5532152967941599</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3529,7 +3535,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.5556870984967306</v>
+        <v>0.5529483842195551</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3537,7 +3543,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.5529483842195551</v>
+        <v>0.5413658641754966</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3553,7 +3559,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.534590246630648</v>
+        <v>0.5355714876118893</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3561,7 +3567,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.5329035999440015</v>
+        <v>0.534590246630648</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3593,7 +3599,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.5207965783370987</v>
+        <v>0.5215411891019528</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3601,7 +3607,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.5153927133946532</v>
+        <v>0.5207965783370987</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3609,7 +3615,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.514301432880296</v>
+        <v>0.5153927133946532</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3617,7 +3623,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.5019280797377121</v>
+        <v>0.514301432880296</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3625,7 +3631,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.5015689968899415</v>
+        <v>0.5019280797377121</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3633,7 +3639,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.4956519626923643</v>
+        <v>0.4929405715194346</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3641,7 +3647,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4948163420904197</v>
+        <v>0.490376468955332</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3649,7 +3655,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.4929405715194346</v>
+        <v>0.481690825790051</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3657,7 +3663,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.490376468955332</v>
+        <v>0.4770580320244173</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3665,7 +3671,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4885538408544237</v>
+        <v>0.4745400831189461</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3673,7 +3679,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4745400831189461</v>
+        <v>0.4719945090349107</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3681,7 +3687,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.4719945090349107</v>
+        <v>0.4671364316392477</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3689,7 +3695,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.4671364316392477</v>
+        <v>0.4662003607992338</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3697,7 +3703,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4623542069530799</v>
+        <v>0.4604180939969571</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3705,7 +3711,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.4614138352619341</v>
+        <v>0.4463727376439086</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3713,7 +3719,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.4604180939969571</v>
+        <v>0.440468812509214</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3721,7 +3727,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.4477711074008315</v>
+        <v>0.4364209799998429</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3729,7 +3735,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4463727376439086</v>
+        <v>0.4361407474119181</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3745,7 +3751,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.4168784922334463</v>
+        <v>0.4275769607712085</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3753,7 +3759,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.4144245149264552</v>
+        <v>0.4168784922334463</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3761,7 +3767,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.3987702973491605</v>
+        <v>0.4104313877642605</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3769,7 +3775,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.3986331513457368</v>
+        <v>0.4093649590976682</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3777,7 +3783,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.3932073560169882</v>
+        <v>0.4025603440625225</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3785,7 +3791,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.3821307403249881</v>
+        <v>0.3977581897985913</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3801,7 +3807,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.3749539791776386</v>
+        <v>0.3502909590117917</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3809,7 +3815,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3608701356707182</v>
+        <v>0.327447602949543</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3817,7 +3823,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.353643185194547</v>
+        <v>0.321193984772848</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3825,7 +3831,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.3517765448261152</v>
+        <v>0.3136538152639696</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3833,7 +3839,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.3217079152867783</v>
+        <v>0.3104184568819353</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3841,7 +3847,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.3209998730313437</v>
+        <v>0.3063951902744873</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3849,7 +3855,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.320014651285822</v>
+        <v>0.3022123254065732</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3857,7 +3863,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.3136538152639696</v>
+        <v>0.2981221358073338</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3865,7 +3871,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.3063951902744873</v>
+        <v>0.2935389475024262</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3873,7 +3879,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.3040239263245088</v>
+        <v>0.2896946934658644</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3881,7 +3887,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.3026117763829472</v>
+        <v>0.2845434162944631</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3889,7 +3895,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.3010299607626699</v>
+        <v>0.2769908374927776</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3897,7 +3903,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.3008593131598956</v>
+        <v>0.2730701428028521</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3905,7 +3911,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.281455945034808</v>
+        <v>0.2604369640158271</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3913,7 +3919,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.2680562250966267</v>
+        <v>0.257437399477801</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3921,7 +3927,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2660059249694036</v>
+        <v>0.2519050899070299</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3929,7 +3935,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2586008451321968</v>
+        <v>0.251751514552216</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3937,7 +3943,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.2572269500478948</v>
+        <v>0.241451477405906</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3945,7 +3951,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2491452429164136</v>
+        <v>0.2404344341966747</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3953,7 +3959,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2389078094097494</v>
+        <v>0.2343247855959565</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3961,7 +3967,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.2171654918982013</v>
+        <v>0.2279090869052078</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3969,7 +3975,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.2077027324354417</v>
+        <v>0.2267437555149261</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3977,7 +3983,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.197633079865789</v>
+        <v>0.2263177436183261</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3985,7 +3991,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1904598194911711</v>
+        <v>0.1909679714699115</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3993,7 +3999,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.18626084099355</v>
+        <v>0.1895754198284911</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4001,7 +4007,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1578101890813601</v>
+        <v>0.179023185486664</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4009,7 +4015,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.132166512816599</v>
+        <v>0.1416925347489182</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4017,7 +4023,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1117976097535971</v>
+        <v>0.1204168101203458</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4025,7 +4031,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1072757760070084</v>
+        <v>0.1156231187838077</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4033,7 +4039,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1013550226775257</v>
+        <v>0.0964236452317293</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4041,7 +4047,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.09975633969981335</v>
+        <v>0.09366493945838239</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4049,7 +4055,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.08989565428959234</v>
+        <v>0.09135677660961483</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4057,7 +4063,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.08729090067745626</v>
+        <v>0.08612280435551867</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4065,7 +4071,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.08433711899302399</v>
+        <v>0.05828526327815364</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4073,7 +4079,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.07784366695194711</v>
+        <v>0.05389342534203467</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4081,7 +4087,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.07176768933559741</v>
+        <v>0.03971469892942747</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4089,7 +4095,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.04022045451913181</v>
+        <v>0.03947872535145258</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4097,7 +4103,23 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.01740523137967487</v>
+        <v>0.03732096177562849</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.02666936191350233</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.009231766683032827</v>
       </c>
     </row>
   </sheetData>
